--- a/experiment/excel/chatgpt_data2.xlsx
+++ b/experiment/excel/chatgpt_data2.xlsx
@@ -474,19 +474,19 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>实时买卖申报数量</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
           <t>申报数量</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>实时买卖申报数量</t>
-        </is>
-      </c>
       <c r="N1" t="inlineStr">
         <is>
           <t>当日累计成交数量</t>
@@ -494,29 +494,29 @@
       </c>
       <c r="O1" t="inlineStr">
         <is>
+          <t>价格类型</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>交易价格</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>价格</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>价格类型</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>申报价格</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
         <is>
           <t>成交价格</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>交易价格</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>申报价格</t>
-        </is>
-      </c>
       <c r="T1" t="inlineStr">
         <is>
           <t>买卖双方所在会员证券营业部名称</t>
@@ -524,117 +524,117 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
+          <t>交易参与者</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>证券营业部识别码</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>交易单元代码</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>证券代码</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>实际持有量</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
           <t>实际资金量</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>会员</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>证券状态</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>本方及对手方交易单元代码</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>累计成交量</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>本方交易单元代码</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>申报金额</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>证券账户号码</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>买卖方向</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>证券简称</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>当日累计成交金额</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>申报类型</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
         <is>
           <t>交易金额</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>证券简称</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>证券状态</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>各自的买入、卖出金额</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>约定号</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
         <is>
           <t>买卖金额最大五家会员证券营业部名称</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>交易单元代码</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>证券营业部识别码</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>累计成交量</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>累计成交金额</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>证券代码</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>申报类型</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>买卖方向</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>约定号</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>成交量</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>交易参与者</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>本方及对手方交易单元代码</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>实际持有量</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>会员</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>本方交易单元代码</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>证券账户号码</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>申报金额</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>当日累计成交金额</t>
         </is>
       </c>
       <c r="AR1" t="inlineStr">
@@ -701,11 +701,7 @@
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>2,000,000元人民币</t>
-        </is>
-      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
@@ -722,7 +718,11 @@
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>2,000,000元人民币</t>
+        </is>
+      </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
@@ -791,11 +791,7 @@
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1,500,000元人民币</t>
-        </is>
-      </c>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
@@ -812,7 +808,11 @@
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>1,500,000元人民币</t>
+        </is>
+      </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
@@ -881,11 +881,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>200,000港币</t>
-        </is>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -902,7 +898,11 @@
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>200,000港币</t>
+        </is>
+      </c>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
@@ -971,11 +971,7 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>150,000港币</t>
-        </is>
-      </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
@@ -992,7 +988,11 @@
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>150,000港币</t>
+        </is>
+      </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
@@ -1061,11 +1061,7 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2,000,000元人民币</t>
-        </is>
-      </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
@@ -1082,7 +1078,11 @@
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>2,000,000元人民币</t>
+        </is>
+      </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
@@ -1151,11 +1151,7 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>1,500,000元人民币</t>
-        </is>
-      </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
@@ -1172,7 +1168,11 @@
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>1,500,000元人民币</t>
+        </is>
+      </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
@@ -1235,13 +1235,13 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>协商确定</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>协商确定</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
@@ -1325,13 +1325,13 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>协商确定</t>
+        </is>
+      </c>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>协商确定</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
@@ -1415,13 +1415,13 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>当日收盘价或成交量加权平均价格</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>当日收盘价或成交量加权平均价格</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
@@ -1505,13 +1505,13 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>当日收盘价或成交量加权平均价格</t>
+        </is>
+      </c>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>当日收盘价或成交量加权平均价格</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
@@ -1923,16 +1923,16 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>当天全天停牌</t>
-        </is>
-      </c>
+      <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>当天全天停牌</t>
+        </is>
+      </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
@@ -2005,16 +2005,16 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>当天全天停牌</t>
-        </is>
-      </c>
+      <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>当天全天停牌</t>
+        </is>
+      </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
@@ -2081,12 +2081,12 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>涨跌幅限制范围内</t>
         </is>
       </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -2163,12 +2163,12 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>超出涨跌幅限制</t>
         </is>
       </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
@@ -2245,12 +2245,12 @@
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>符合规则要求</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
@@ -2327,12 +2327,12 @@
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>超出规则要求</t>
         </is>
       </c>
+      <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
@@ -2419,17 +2419,17 @@
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>意向申报</t>
-        </is>
-      </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>意向申报</t>
+        </is>
+      </c>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
@@ -2497,17 +2497,17 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>成交申报</t>
-        </is>
-      </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>成交申报</t>
+        </is>
+      </c>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
@@ -2575,17 +2575,17 @@
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>定价申报</t>
-        </is>
-      </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
       <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>定价申报</t>
+        </is>
+      </c>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
@@ -2653,17 +2653,17 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>其他申报</t>
-        </is>
-      </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
       <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>其他申报</t>
+        </is>
+      </c>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
@@ -2723,44 +2723,44 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>意向申报</t>
-        </is>
-      </c>
-      <c r="AG26" t="inlineStr">
+          <t>XYZ123</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>意向申报</t>
+        </is>
+      </c>
       <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>XYZ123</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr">
@@ -2812,59 +2812,59 @@
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr">
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>10.00元</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>000002</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr">
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>ABC456</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>654321</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>卖出</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr">
         <is>
           <t>成交申报</t>
         </is>
       </c>
-      <c r="AG27" t="inlineStr">
-        <is>
-          <t>卖出</t>
-        </is>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>789012</t>
-        </is>
-      </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>ABC456</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>654321</t>
+          <t>789012</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr"/>
@@ -2918,57 +2918,57 @@
       </c>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr">
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>15.00元</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
+      <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>定价申报</t>
-        </is>
-      </c>
-      <c r="AG28" t="inlineStr">
+          <t>DEF789</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>987654</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
       <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>定价申报</t>
+        </is>
+      </c>
       <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>DEF789</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>987654</t>
-        </is>
-      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr">
@@ -3176,57 +3176,57 @@
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>当日收盘价</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>ABCDEF</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>XYZ123</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>XYZ123</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>ABCDEF</t>
-        </is>
-      </c>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
       <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
+      <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr">
@@ -3278,57 +3278,57 @@
       </c>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>当日成交量加权平均价格</t>
         </is>
       </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>GHIJKL</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>LMN456</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>LMN456</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>GHIJKL</t>
-        </is>
-      </c>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>000002</t>
-        </is>
-      </c>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr">
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>654321</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
         <is>
           <t>卖出</t>
         </is>
       </c>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
       <c r="AK32" t="inlineStr"/>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>654321</t>
-        </is>
-      </c>
+      <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
       <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr">
@@ -3380,57 +3380,57 @@
       </c>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>当日收盘价</t>
         </is>
       </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>MNOPQR</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>OPQ789</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>OPQ789</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>MNOPQR</t>
-        </is>
-      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr">
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>789012</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
         <is>
           <t>买入</t>
         </is>
       </c>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>789012</t>
-        </is>
-      </c>
+      <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
       <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr">
@@ -3474,63 +3474,63 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>买入500,000股/卖出300,000股</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>买入500,000股/卖出300,000股</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>1,000,000股</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>10.00元</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>XXX股份</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>XXX股份</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>10,000,000元</t>
+        </is>
+      </c>
       <c r="AL34" t="inlineStr"/>
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>10,000,000元</t>
-        </is>
-      </c>
+      <c r="AQ34" t="inlineStr"/>
       <c r="AR34" t="inlineStr">
         <is>
           <t>成功</t>
@@ -3572,52 +3572,52 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>买入300,000股</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>买入300,000股</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>500,000股</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>15.00元</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>YYY股份</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>000002</t>
-        </is>
-      </c>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>YYY股份</t>
+        </is>
+      </c>
       <c r="AK35" t="inlineStr"/>
       <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="inlineStr"/>
@@ -3672,13 +3672,13 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
         <is>
           <t>10.00元</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr">
         <is>
           <t>买方ABC证券营业部/卖方XYZ证券营业部</t>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>XXX股份</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>1,000,000股</t>
+        </is>
+      </c>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>1,000,000股</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>XXX股份</t>
+        </is>
+      </c>
       <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="inlineStr"/>
@@ -3772,51 +3772,51 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>YYY股份</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>各会员具体买卖金额</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>会员1/会员2/会员3/会员4/会员5</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr">
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr">
         <is>
           <t>500,000股</t>
-        </is>
-      </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>7,500,000元</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>000002</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>YYY股份</t>
+        </is>
+      </c>
       <c r="AK37" t="inlineStr"/>
       <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>各会员具体买卖金额</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>会员1/会员2/会员3/会员4/会员5</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>7,500,000元</t>
+        </is>
+      </c>
       <c r="AR37" t="inlineStr">
         <is>
           <t>成功</t>
@@ -3870,51 +3870,51 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>ZZZ股份</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>各会员具体买卖金额</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>会员6/会员7/会员8/会员9/会员10</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr">
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr">
         <is>
           <t>800,000股</t>
-        </is>
-      </c>
-      <c r="AD38" t="inlineStr">
-        <is>
-          <t>12,000,000元</t>
-        </is>
-      </c>
-      <c r="AE38" t="inlineStr">
-        <is>
-          <t>000003</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="inlineStr"/>
       <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>ZZZ股份</t>
+        </is>
+      </c>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
       <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>各会员具体买卖金额</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>会员6/会员7/会员8/会员9/会员10</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>12,000,000元</t>
+        </is>
+      </c>
       <c r="AR38" t="inlineStr">
         <is>
           <t>成功</t>
@@ -3965,26 +3965,26 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>1,000,000股</t>
+        </is>
+      </c>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr">
-        <is>
-          <t>1,000,000股</t>
-        </is>
-      </c>
+      <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
@@ -4043,26 +4043,26 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>500,000股</t>
+        </is>
+      </c>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>000002</t>
-        </is>
-      </c>
+      <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>500,000股</t>
-        </is>
-      </c>
+      <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="inlineStr"/>
       <c r="AL40" t="inlineStr"/>
@@ -4108,13 +4108,13 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
         <is>
           <t>1,000,000股</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
@@ -4122,41 +4122,41 @@
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>XYZ投资者</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>1,200,000股</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>ABC证券</t>
+        </is>
+      </c>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>000001</t>
-        </is>
-      </c>
+      <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>XYZ投资者</t>
-        </is>
-      </c>
+      <c r="AJ41" t="inlineStr"/>
       <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>1,200,000股</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>ABC证券</t>
-        </is>
-      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
@@ -4210,46 +4210,46 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>12,000,000元</t>
+          <t>LMN投资者</t>
         </is>
       </c>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>000002</t>
+        </is>
+      </c>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>12,000,000元</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>DEF证券</t>
+        </is>
+      </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>000002</t>
-        </is>
-      </c>
+      <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>10,000,000元</t>
+        </is>
+      </c>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>LMN投资者</t>
-        </is>
-      </c>
+      <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
       <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>DEF证券</t>
-        </is>
-      </c>
+      <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>10,000,000元</t>
-        </is>
-      </c>
+      <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
       <c r="AR42" t="inlineStr">
         <is>
@@ -4288,13 +4288,13 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
         <is>
           <t>800,000股</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
@@ -4302,41 +4302,41 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>OPQ投资者</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>000003</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>500,000股</t>
+        </is>
+      </c>
       <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>GHI证券</t>
+        </is>
+      </c>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>000003</t>
-        </is>
-      </c>
+      <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>OPQ投资者</t>
-        </is>
-      </c>
+      <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr">
-        <is>
-          <t>500,000股</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>GHI证券</t>
-        </is>
-      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
